--- a/Simu results TS/results table TS.xlsx
+++ b/Simu results TS/results table TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP PHD U3/missing-data-project-2/Simu results TS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5921B-F998-8B4F-8EF1-19C59D089ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B244403F-CA88-CB47-B37B-C52805107C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32640" windowHeight="20540" xr2:uid="{607ED939-DBBC-B749-8922-61AD95242C27}"/>
   </bookViews>
@@ -728,14 +728,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,12 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556F26C-A5B2-694D-B9C6-23C093E29136}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,34 +1097,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="48" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:12" s="48" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1135,26 +1135,26 @@
       <c r="A5" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="43" t="s">
         <v>25</v>
       </c>
@@ -1223,20 +1223,20 @@
     </row>
     <row r="10" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1381,20 +1381,20 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="54" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1539,20 +1539,20 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1696,19 +1696,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -1716,26 +1716,26 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="56" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1804,20 +1804,20 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="54" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -1961,20 +1961,20 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="54" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -2118,20 +2118,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="54" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -2274,28 +2274,22 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="B34:F34"/>
@@ -2312,6 +2306,12 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="G31:K31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2425,20 +2425,20 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
@@ -3737,20 +3737,20 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="54" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
@@ -5051,20 +5051,20 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="50"/>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="54" t="s">
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="55"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="54"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
